--- a/Data_Sources_and_Preparation/Economic_Uncertainty/EPU_World.xlsx
+++ b/Data_Sources_and_Preparation/Economic_Uncertainty/EPU_World.xlsx
@@ -16,10 +16,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>Date</t>
+    <t>EPU_World</t>
   </si>
   <si>
-    <t>EPU_World</t>
+    <t>Date</t>
   </si>
   <si>
     <t>EPU_World-1</t>
@@ -423,10 +423,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
+        <v>96.82827523083172</v>
+      </c>
+      <c r="B2">
         <v>199801</v>
-      </c>
-      <c r="B2">
-        <v>96.82827523083172</v>
       </c>
       <c r="C2">
         <v>104.2959527553588</v>
@@ -446,10 +446,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
+        <v>86.75283213148275</v>
+      </c>
+      <c r="B3">
         <v>199802</v>
-      </c>
-      <c r="B3">
-        <v>86.75283213148275</v>
       </c>
       <c r="C3">
         <v>96.82827523083172</v>
@@ -469,10 +469,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
+        <v>89.82786538426272</v>
+      </c>
+      <c r="B4">
         <v>199803</v>
-      </c>
-      <c r="B4">
-        <v>89.82786538426272</v>
       </c>
       <c r="C4">
         <v>86.75283213148275</v>
@@ -492,10 +492,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
+        <v>79.98499759646685</v>
+      </c>
+      <c r="B5">
         <v>199804</v>
-      </c>
-      <c r="B5">
-        <v>79.98499759646685</v>
       </c>
       <c r="C5">
         <v>89.82786538426272</v>
@@ -515,10 +515,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
+        <v>86.81706543763968</v>
+      </c>
+      <c r="B6">
         <v>199805</v>
-      </c>
-      <c r="B6">
-        <v>86.81706543763968</v>
       </c>
       <c r="C6">
         <v>79.98499759646685</v>
@@ -538,10 +538,10 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
+        <v>85.90317493445923</v>
+      </c>
+      <c r="B7">
         <v>199806</v>
-      </c>
-      <c r="B7">
-        <v>85.90317493445923</v>
       </c>
       <c r="C7">
         <v>86.81706543763968</v>
@@ -561,10 +561,10 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
+        <v>103.4232159192022</v>
+      </c>
+      <c r="B8">
         <v>199807</v>
-      </c>
-      <c r="B8">
-        <v>103.4232159192022</v>
       </c>
       <c r="C8">
         <v>85.90317493445923</v>
@@ -584,10 +584,10 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
+        <v>117.4238733060504</v>
+      </c>
+      <c r="B9">
         <v>199808</v>
-      </c>
-      <c r="B9">
-        <v>117.4238733060504</v>
       </c>
       <c r="C9">
         <v>103.4232159192022</v>
@@ -607,10 +607,10 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
+        <v>151.4055191743828</v>
+      </c>
+      <c r="B10">
         <v>199809</v>
-      </c>
-      <c r="B10">
-        <v>151.4055191743828</v>
       </c>
       <c r="C10">
         <v>117.4238733060504</v>
@@ -630,10 +630,10 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
+        <v>120.175145045854</v>
+      </c>
+      <c r="B11">
         <v>199810</v>
-      </c>
-      <c r="B11">
-        <v>120.175145045854</v>
       </c>
       <c r="C11">
         <v>151.4055191743828</v>
@@ -653,10 +653,10 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
+        <v>100.3823996754825</v>
+      </c>
+      <c r="B12">
         <v>199811</v>
-      </c>
-      <c r="B12">
-        <v>100.3823996754825</v>
       </c>
       <c r="C12">
         <v>120.175145045854</v>
@@ -676,10 +676,10 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
+        <v>95.69943671292999</v>
+      </c>
+      <c r="B13">
         <v>199812</v>
-      </c>
-      <c r="B13">
-        <v>95.69943671292999</v>
       </c>
       <c r="C13">
         <v>100.3823996754825</v>
@@ -699,10 +699,10 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
+        <v>101.7562293269455</v>
+      </c>
+      <c r="B14">
         <v>199901</v>
-      </c>
-      <c r="B14">
-        <v>101.7562293269455</v>
       </c>
       <c r="C14">
         <v>95.69943671292999</v>
@@ -722,10 +722,10 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
+        <v>82.08527123198863</v>
+      </c>
+      <c r="B15">
         <v>199902</v>
-      </c>
-      <c r="B15">
-        <v>82.08527123198863</v>
       </c>
       <c r="C15">
         <v>101.7562293269455</v>
@@ -745,10 +745,10 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
+        <v>66.56050843370495</v>
+      </c>
+      <c r="B16">
         <v>199903</v>
-      </c>
-      <c r="B16">
-        <v>66.56050843370495</v>
       </c>
       <c r="C16">
         <v>82.08527123198863</v>
@@ -768,10 +768,10 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
+        <v>65.79932915061184</v>
+      </c>
+      <c r="B17">
         <v>199904</v>
-      </c>
-      <c r="B17">
-        <v>65.79932915061184</v>
       </c>
       <c r="C17">
         <v>66.56050843370495</v>
@@ -791,10 +791,10 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
+        <v>71.46846641727055</v>
+      </c>
+      <c r="B18">
         <v>199905</v>
-      </c>
-      <c r="B18">
-        <v>71.46846641727055</v>
       </c>
       <c r="C18">
         <v>65.79932915061184</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
+        <v>74.52559975829628</v>
+      </c>
+      <c r="B19">
         <v>199906</v>
-      </c>
-      <c r="B19">
-        <v>74.52559975829628</v>
       </c>
       <c r="C19">
         <v>71.46846641727055</v>
@@ -837,10 +837,10 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
+        <v>74.66833076316041</v>
+      </c>
+      <c r="B20">
         <v>199907</v>
-      </c>
-      <c r="B20">
-        <v>74.66833076316041</v>
       </c>
       <c r="C20">
         <v>74.52559975829628</v>
@@ -860,10 +860,10 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
+        <v>65.30428652515354</v>
+      </c>
+      <c r="B21">
         <v>199908</v>
-      </c>
-      <c r="B21">
-        <v>65.30428652515354</v>
       </c>
       <c r="C21">
         <v>74.66833076316041</v>
@@ -883,10 +883,10 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
+        <v>72.01754159918625</v>
+      </c>
+      <c r="B22">
         <v>199909</v>
-      </c>
-      <c r="B22">
-        <v>72.01754159918625</v>
       </c>
       <c r="C22">
         <v>65.30428652515354</v>
@@ -906,10 +906,10 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
+        <v>67.81400768123076</v>
+      </c>
+      <c r="B23">
         <v>199910</v>
-      </c>
-      <c r="B23">
-        <v>67.81400768123076</v>
       </c>
       <c r="C23">
         <v>72.01754159918625</v>
@@ -929,10 +929,10 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
+        <v>69.72446354699547</v>
+      </c>
+      <c r="B24">
         <v>199911</v>
-      </c>
-      <c r="B24">
-        <v>69.72446354699547</v>
       </c>
       <c r="C24">
         <v>67.81400768123076</v>
@@ -952,10 +952,10 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
+        <v>62.69485064261681</v>
+      </c>
+      <c r="B25">
         <v>199912</v>
-      </c>
-      <c r="B25">
-        <v>62.69485064261681</v>
       </c>
       <c r="C25">
         <v>69.72446354699547</v>
@@ -975,10 +975,10 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
+        <v>66.58957333202011</v>
+      </c>
+      <c r="B26">
         <v>200001</v>
-      </c>
-      <c r="B26">
-        <v>66.58957333202011</v>
       </c>
       <c r="C26">
         <v>62.69485064261681</v>
@@ -998,10 +998,10 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
+        <v>61.35557041608723</v>
+      </c>
+      <c r="B27">
         <v>200002</v>
-      </c>
-      <c r="B27">
-        <v>61.35557041608723</v>
       </c>
       <c r="C27">
         <v>66.58957333202011</v>
@@ -1021,10 +1021,10 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
+        <v>62.62119913014482</v>
+      </c>
+      <c r="B28">
         <v>200003</v>
-      </c>
-      <c r="B28">
-        <v>62.62119913014482</v>
       </c>
       <c r="C28">
         <v>61.35557041608723</v>
@@ -1044,10 +1044,10 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
+        <v>64.27752457142033</v>
+      </c>
+      <c r="B29">
         <v>200004</v>
-      </c>
-      <c r="B29">
-        <v>64.27752457142033</v>
       </c>
       <c r="C29">
         <v>62.62119913014482</v>
@@ -1067,10 +1067,10 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
+        <v>88.93101182094973</v>
+      </c>
+      <c r="B30">
         <v>200005</v>
-      </c>
-      <c r="B30">
-        <v>88.93101182094973</v>
       </c>
       <c r="C30">
         <v>64.27752457142033</v>
@@ -1090,10 +1090,10 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
+        <v>91.23331315935026</v>
+      </c>
+      <c r="B31">
         <v>200006</v>
-      </c>
-      <c r="B31">
-        <v>91.23331315935026</v>
       </c>
       <c r="C31">
         <v>88.93101182094973</v>
@@ -1113,10 +1113,10 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32">
+        <v>66.37666772947998</v>
+      </c>
+      <c r="B32">
         <v>200007</v>
-      </c>
-      <c r="B32">
-        <v>66.37666772947998</v>
       </c>
       <c r="C32">
         <v>91.23331315935026</v>
@@ -1136,10 +1136,10 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33">
+        <v>54.6208702655868</v>
+      </c>
+      <c r="B33">
         <v>200008</v>
-      </c>
-      <c r="B33">
-        <v>54.6208702655868</v>
       </c>
       <c r="C33">
         <v>66.37666772947998</v>
@@ -1159,10 +1159,10 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34">
+        <v>62.36198040854131</v>
+      </c>
+      <c r="B34">
         <v>200009</v>
-      </c>
-      <c r="B34">
-        <v>62.36198040854131</v>
       </c>
       <c r="C34">
         <v>54.6208702655868</v>
@@ -1182,10 +1182,10 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35">
+        <v>70.54879307661885</v>
+      </c>
+      <c r="B35">
         <v>200010</v>
-      </c>
-      <c r="B35">
-        <v>70.54879307661885</v>
       </c>
       <c r="C35">
         <v>62.36198040854131</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36">
+        <v>113.1303492962286</v>
+      </c>
+      <c r="B36">
         <v>200011</v>
-      </c>
-      <c r="B36">
-        <v>113.1303492962286</v>
       </c>
       <c r="C36">
         <v>70.54879307661885</v>
@@ -1228,10 +1228,10 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37">
+        <v>103.905384317963</v>
+      </c>
+      <c r="B37">
         <v>200012</v>
-      </c>
-      <c r="B37">
-        <v>103.905384317963</v>
       </c>
       <c r="C37">
         <v>113.1303492962286</v>
@@ -1251,10 +1251,10 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38">
+        <v>101.5844777183376</v>
+      </c>
+      <c r="B38">
         <v>200101</v>
-      </c>
-      <c r="B38">
-        <v>101.5844777183376</v>
       </c>
       <c r="C38">
         <v>103.905384317963</v>
@@ -1274,10 +1274,10 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39">
+        <v>100.5421942212105</v>
+      </c>
+      <c r="B39">
         <v>200102</v>
-      </c>
-      <c r="B39">
-        <v>100.5421942212105</v>
       </c>
       <c r="C39">
         <v>101.5844777183376</v>
@@ -1297,10 +1297,10 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40">
+        <v>112.0262426387382</v>
+      </c>
+      <c r="B40">
         <v>200103</v>
-      </c>
-      <c r="B40">
-        <v>112.0262426387382</v>
       </c>
       <c r="C40">
         <v>100.5421942212105</v>
@@ -1320,10 +1320,10 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41">
+        <v>110.2752751466939</v>
+      </c>
+      <c r="B41">
         <v>200104</v>
-      </c>
-      <c r="B41">
-        <v>110.2752751466939</v>
       </c>
       <c r="C41">
         <v>112.0262426387382</v>
@@ -1343,10 +1343,10 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42">
+        <v>86.90222267582752</v>
+      </c>
+      <c r="B42">
         <v>200105</v>
-      </c>
-      <c r="B42">
-        <v>86.90222267582752</v>
       </c>
       <c r="C42">
         <v>110.2752751466939</v>
@@ -1366,10 +1366,10 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43">
+        <v>73.67355273433147</v>
+      </c>
+      <c r="B43">
         <v>200106</v>
-      </c>
-      <c r="B43">
-        <v>73.67355273433147</v>
       </c>
       <c r="C43">
         <v>86.90222267582752</v>
@@ -1389,10 +1389,10 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44">
+        <v>99.10064633398724</v>
+      </c>
+      <c r="B44">
         <v>200107</v>
-      </c>
-      <c r="B44">
-        <v>99.10064633398724</v>
       </c>
       <c r="C44">
         <v>73.67355273433147</v>
@@ -1412,10 +1412,10 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45">
+        <v>84.7197211105053</v>
+      </c>
+      <c r="B45">
         <v>200108</v>
-      </c>
-      <c r="B45">
-        <v>84.7197211105053</v>
       </c>
       <c r="C45">
         <v>99.10064633398724</v>
@@ -1435,10 +1435,10 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46">
+        <v>188.3362128436329</v>
+      </c>
+      <c r="B46">
         <v>200109</v>
-      </c>
-      <c r="B46">
-        <v>188.3362128436329</v>
       </c>
       <c r="C46">
         <v>84.7197211105053</v>
@@ -1458,10 +1458,10 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47">
+        <v>179.4735519742759</v>
+      </c>
+      <c r="B47">
         <v>200110</v>
-      </c>
-      <c r="B47">
-        <v>179.4735519742759</v>
       </c>
       <c r="C47">
         <v>188.3362128436329</v>
@@ -1481,10 +1481,10 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48">
+        <v>129.5704099105668</v>
+      </c>
+      <c r="B48">
         <v>200111</v>
-      </c>
-      <c r="B48">
-        <v>129.5704099105668</v>
       </c>
       <c r="C48">
         <v>179.4735519742759</v>
@@ -1504,10 +1504,10 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49">
+        <v>112.4520592788543</v>
+      </c>
+      <c r="B49">
         <v>200112</v>
-      </c>
-      <c r="B49">
-        <v>112.4520592788543</v>
       </c>
       <c r="C49">
         <v>129.5704099105668</v>
@@ -1527,10 +1527,10 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50">
+        <v>112.2409483670161</v>
+      </c>
+      <c r="B50">
         <v>200201</v>
-      </c>
-      <c r="B50">
-        <v>112.2409483670161</v>
       </c>
       <c r="C50">
         <v>112.4520592788543</v>
@@ -1550,10 +1550,10 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51">
+        <v>93.15905270281321</v>
+      </c>
+      <c r="B51">
         <v>200202</v>
-      </c>
-      <c r="B51">
-        <v>93.15905270281321</v>
       </c>
       <c r="C51">
         <v>112.2409483670161</v>
@@ -1573,10 +1573,10 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52">
+        <v>81.31608513127401</v>
+      </c>
+      <c r="B52">
         <v>200203</v>
-      </c>
-      <c r="B52">
-        <v>81.31608513127401</v>
       </c>
       <c r="C52">
         <v>93.15905270281321</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53">
+        <v>87.37342248412575</v>
+      </c>
+      <c r="B53">
         <v>200204</v>
-      </c>
-      <c r="B53">
-        <v>87.37342248412575</v>
       </c>
       <c r="C53">
         <v>81.31608513127401</v>
@@ -1619,10 +1619,10 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54">
+        <v>80.324810719589</v>
+      </c>
+      <c r="B54">
         <v>200205</v>
-      </c>
-      <c r="B54">
-        <v>80.324810719589</v>
       </c>
       <c r="C54">
         <v>87.37342248412575</v>
@@ -1642,10 +1642,10 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55">
+        <v>98.9495147994184</v>
+      </c>
+      <c r="B55">
         <v>200206</v>
-      </c>
-      <c r="B55">
-        <v>98.9495147994184</v>
       </c>
       <c r="C55">
         <v>80.324810719589</v>
@@ -1665,10 +1665,10 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56">
+        <v>104.9633759440682</v>
+      </c>
+      <c r="B56">
         <v>200207</v>
-      </c>
-      <c r="B56">
-        <v>104.9633759440682</v>
       </c>
       <c r="C56">
         <v>98.9495147994184</v>
@@ -1688,10 +1688,10 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57">
+        <v>112.1734279810645</v>
+      </c>
+      <c r="B57">
         <v>200208</v>
-      </c>
-      <c r="B57">
-        <v>112.1734279810645</v>
       </c>
       <c r="C57">
         <v>104.9633759440682</v>
@@ -1711,10 +1711,10 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58">
+        <v>130.0305287886552</v>
+      </c>
+      <c r="B58">
         <v>200209</v>
-      </c>
-      <c r="B58">
-        <v>130.0305287886552</v>
       </c>
       <c r="C58">
         <v>112.1734279810645</v>
@@ -1734,10 +1734,10 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59">
+        <v>122.0341392883282</v>
+      </c>
+      <c r="B59">
         <v>200210</v>
-      </c>
-      <c r="B59">
-        <v>122.0341392883282</v>
       </c>
       <c r="C59">
         <v>130.0305287886552</v>
@@ -1757,10 +1757,10 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60">
+        <v>126.0380300805659</v>
+      </c>
+      <c r="B60">
         <v>200211</v>
-      </c>
-      <c r="B60">
-        <v>126.0380300805659</v>
       </c>
       <c r="C60">
         <v>122.0341392883282</v>
@@ -1780,10 +1780,10 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61">
+        <v>119.5864842342968</v>
+      </c>
+      <c r="B61">
         <v>200212</v>
-      </c>
-      <c r="B61">
-        <v>119.5864842342968</v>
       </c>
       <c r="C61">
         <v>126.0380300805659</v>
@@ -1803,10 +1803,10 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62">
+        <v>137.0373487465671</v>
+      </c>
+      <c r="B62">
         <v>200301</v>
-      </c>
-      <c r="B62">
-        <v>137.0373487465671</v>
       </c>
       <c r="C62">
         <v>119.5864842342968</v>
@@ -1826,10 +1826,10 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63">
+        <v>147.4126346122489</v>
+      </c>
+      <c r="B63">
         <v>200302</v>
-      </c>
-      <c r="B63">
-        <v>147.4126346122489</v>
       </c>
       <c r="C63">
         <v>137.0373487465671</v>
@@ -1849,10 +1849,10 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64">
+        <v>183.4896162713465</v>
+      </c>
+      <c r="B64">
         <v>200303</v>
-      </c>
-      <c r="B64">
-        <v>183.4896162713465</v>
       </c>
       <c r="C64">
         <v>147.4126346122489</v>
@@ -1872,10 +1872,10 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65">
+        <v>144.6072682386681</v>
+      </c>
+      <c r="B65">
         <v>200304</v>
-      </c>
-      <c r="B65">
-        <v>144.6072682386681</v>
       </c>
       <c r="C65">
         <v>183.4896162713465</v>
@@ -1895,10 +1895,10 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66">
+        <v>108.7772118621942</v>
+      </c>
+      <c r="B66">
         <v>200305</v>
-      </c>
-      <c r="B66">
-        <v>108.7772118621942</v>
       </c>
       <c r="C66">
         <v>144.6072682386681</v>
@@ -1918,10 +1918,10 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67">
+        <v>90.33615107548002</v>
+      </c>
+      <c r="B67">
         <v>200306</v>
-      </c>
-      <c r="B67">
-        <v>90.33615107548002</v>
       </c>
       <c r="C67">
         <v>108.7772118621942</v>
@@ -1941,10 +1941,10 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68">
+        <v>81.6498242975821</v>
+      </c>
+      <c r="B68">
         <v>200307</v>
-      </c>
-      <c r="B68">
-        <v>81.6498242975821</v>
       </c>
       <c r="C68">
         <v>90.33615107548002</v>
@@ -1964,10 +1964,10 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69">
+        <v>69.6285507588171</v>
+      </c>
+      <c r="B69">
         <v>200308</v>
-      </c>
-      <c r="B69">
-        <v>69.6285507588171</v>
       </c>
       <c r="C69">
         <v>81.6498242975821</v>
@@ -1987,10 +1987,10 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70">
+        <v>83.84116293495579</v>
+      </c>
+      <c r="B70">
         <v>200309</v>
-      </c>
-      <c r="B70">
-        <v>83.84116293495579</v>
       </c>
       <c r="C70">
         <v>69.6285507588171</v>
@@ -2010,10 +2010,10 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71">
+        <v>77.12570342744655</v>
+      </c>
+      <c r="B71">
         <v>200310</v>
-      </c>
-      <c r="B71">
-        <v>77.12570342744655</v>
       </c>
       <c r="C71">
         <v>83.84116293495579</v>
@@ -2033,10 +2033,10 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72">
+        <v>74.56607678269864</v>
+      </c>
+      <c r="B72">
         <v>200311</v>
-      </c>
-      <c r="B72">
-        <v>74.56607678269864</v>
       </c>
       <c r="C72">
         <v>77.12570342744655</v>
@@ -2056,10 +2056,10 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73">
+        <v>74.75467255205737</v>
+      </c>
+      <c r="B73">
         <v>200312</v>
-      </c>
-      <c r="B73">
-        <v>74.75467255205737</v>
       </c>
       <c r="C73">
         <v>74.56607678269864</v>
@@ -2079,10 +2079,10 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74">
+        <v>73.41031612367468</v>
+      </c>
+      <c r="B74">
         <v>200401</v>
-      </c>
-      <c r="B74">
-        <v>73.41031612367468</v>
       </c>
       <c r="C74">
         <v>74.75467255205737</v>
@@ -2102,10 +2102,10 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75">
+        <v>70.68417142943446</v>
+      </c>
+      <c r="B75">
         <v>200402</v>
-      </c>
-      <c r="B75">
-        <v>70.68417142943446</v>
       </c>
       <c r="C75">
         <v>73.41031612367468</v>
@@ -2125,10 +2125,10 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76">
+        <v>79.30177159787105</v>
+      </c>
+      <c r="B76">
         <v>200403</v>
-      </c>
-      <c r="B76">
-        <v>79.30177159787105</v>
       </c>
       <c r="C76">
         <v>70.68417142943446</v>
@@ -2148,10 +2148,10 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77">
+        <v>74.92340049983939</v>
+      </c>
+      <c r="B77">
         <v>200404</v>
-      </c>
-      <c r="B77">
-        <v>74.92340049983939</v>
       </c>
       <c r="C77">
         <v>79.30177159787105</v>
@@ -2171,10 +2171,10 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78">
+        <v>93.46343453106104</v>
+      </c>
+      <c r="B78">
         <v>200405</v>
-      </c>
-      <c r="B78">
-        <v>93.46343453106104</v>
       </c>
       <c r="C78">
         <v>74.92340049983939</v>
@@ -2194,10 +2194,10 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79">
+        <v>75.0564068821888</v>
+      </c>
+      <c r="B79">
         <v>200406</v>
-      </c>
-      <c r="B79">
-        <v>75.0564068821888</v>
       </c>
       <c r="C79">
         <v>93.46343453106104</v>
@@ -2217,10 +2217,10 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80">
+        <v>75.14373295999977</v>
+      </c>
+      <c r="B80">
         <v>200407</v>
-      </c>
-      <c r="B80">
-        <v>75.14373295999977</v>
       </c>
       <c r="C80">
         <v>75.0564068821888</v>
@@ -2240,10 +2240,10 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81">
+        <v>69.21530883353063</v>
+      </c>
+      <c r="B81">
         <v>200408</v>
-      </c>
-      <c r="B81">
-        <v>69.21530883353063</v>
       </c>
       <c r="C81">
         <v>75.14373295999977</v>
@@ -2263,10 +2263,10 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82">
+        <v>78.61325353573538</v>
+      </c>
+      <c r="B82">
         <v>200409</v>
-      </c>
-      <c r="B82">
-        <v>78.61325353573538</v>
       </c>
       <c r="C82">
         <v>69.21530883353063</v>
@@ -2286,10 +2286,10 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83">
+        <v>91.60586830983114</v>
+      </c>
+      <c r="B83">
         <v>200410</v>
-      </c>
-      <c r="B83">
-        <v>91.60586830983114</v>
       </c>
       <c r="C83">
         <v>78.61325353573538</v>
@@ -2309,10 +2309,10 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84">
+        <v>85.66373015622528</v>
+      </c>
+      <c r="B84">
         <v>200411</v>
-      </c>
-      <c r="B84">
-        <v>85.66373015622528</v>
       </c>
       <c r="C84">
         <v>91.60586830983114</v>
@@ -2332,10 +2332,10 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85">
+        <v>65.69728225486908</v>
+      </c>
+      <c r="B85">
         <v>200412</v>
-      </c>
-      <c r="B85">
-        <v>65.69728225486908</v>
       </c>
       <c r="C85">
         <v>85.66373015622528</v>
@@ -2355,10 +2355,10 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86">
+        <v>58.84985025146165</v>
+      </c>
+      <c r="B86">
         <v>200501</v>
-      </c>
-      <c r="B86">
-        <v>58.84985025146165</v>
       </c>
       <c r="C86">
         <v>65.69728225486908</v>
@@ -2378,10 +2378,10 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87">
+        <v>53.31645063408236</v>
+      </c>
+      <c r="B87">
         <v>200502</v>
-      </c>
-      <c r="B87">
-        <v>53.31645063408236</v>
       </c>
       <c r="C87">
         <v>58.84985025146165</v>
@@ -2401,10 +2401,10 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88">
+        <v>54.51848404570758</v>
+      </c>
+      <c r="B88">
         <v>200503</v>
-      </c>
-      <c r="B88">
-        <v>54.51848404570758</v>
       </c>
       <c r="C88">
         <v>53.31645063408236</v>
@@ -2424,10 +2424,10 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89">
+        <v>69.75697635855714</v>
+      </c>
+      <c r="B89">
         <v>200504</v>
-      </c>
-      <c r="B89">
-        <v>69.75697635855714</v>
       </c>
       <c r="C89">
         <v>54.51848404570758</v>
@@ -2447,10 +2447,10 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90">
+        <v>71.68510326068406</v>
+      </c>
+      <c r="B90">
         <v>200505</v>
-      </c>
-      <c r="B90">
-        <v>71.68510326068406</v>
       </c>
       <c r="C90">
         <v>69.75697635855714</v>
@@ -2470,10 +2470,10 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91">
+        <v>69.34250914292363</v>
+      </c>
+      <c r="B91">
         <v>200506</v>
-      </c>
-      <c r="B91">
-        <v>69.34250914292363</v>
       </c>
       <c r="C91">
         <v>71.68510326068406</v>
@@ -2493,10 +2493,10 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92">
+        <v>60.88925430122194</v>
+      </c>
+      <c r="B92">
         <v>200507</v>
-      </c>
-      <c r="B92">
-        <v>60.88925430122194</v>
       </c>
       <c r="C92">
         <v>69.34250914292363</v>
@@ -2516,10 +2516,10 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93">
+        <v>63.18504539096093</v>
+      </c>
+      <c r="B93">
         <v>200508</v>
-      </c>
-      <c r="B93">
-        <v>63.18504539096093</v>
       </c>
       <c r="C93">
         <v>60.88925430122194</v>
@@ -2539,10 +2539,10 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94">
+        <v>93.75246325701663</v>
+      </c>
+      <c r="B94">
         <v>200509</v>
-      </c>
-      <c r="B94">
-        <v>93.75246325701663</v>
       </c>
       <c r="C94">
         <v>63.18504539096093</v>
@@ -2562,10 +2562,10 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95">
+        <v>63.17933526348538</v>
+      </c>
+      <c r="B95">
         <v>200510</v>
-      </c>
-      <c r="B95">
-        <v>63.17933526348538</v>
       </c>
       <c r="C95">
         <v>93.75246325701663</v>
@@ -2585,10 +2585,10 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96">
+        <v>66.34404243009871</v>
+      </c>
+      <c r="B96">
         <v>200511</v>
-      </c>
-      <c r="B96">
-        <v>66.34404243009871</v>
       </c>
       <c r="C96">
         <v>63.17933526348538</v>
@@ -2608,10 +2608,10 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97">
+        <v>59.04509147188922</v>
+      </c>
+      <c r="B97">
         <v>200512</v>
-      </c>
-      <c r="B97">
-        <v>59.04509147188922</v>
       </c>
       <c r="C97">
         <v>66.34404243009871</v>
@@ -2631,10 +2631,10 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98">
+        <v>67.91474028393901</v>
+      </c>
+      <c r="B98">
         <v>200601</v>
-      </c>
-      <c r="B98">
-        <v>67.91474028393901</v>
       </c>
       <c r="C98">
         <v>59.04509147188922</v>
@@ -2654,10 +2654,10 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99">
+        <v>55.44634693461128</v>
+      </c>
+      <c r="B99">
         <v>200602</v>
-      </c>
-      <c r="B99">
-        <v>55.44634693461128</v>
       </c>
       <c r="C99">
         <v>67.91474028393901</v>
@@ -2677,10 +2677,10 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100">
+        <v>59.70939076842318</v>
+      </c>
+      <c r="B100">
         <v>200603</v>
-      </c>
-      <c r="B100">
-        <v>59.70939076842318</v>
       </c>
       <c r="C100">
         <v>55.44634693461128</v>
@@ -2700,10 +2700,10 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101">
+        <v>72.79093974659403</v>
+      </c>
+      <c r="B101">
         <v>200604</v>
-      </c>
-      <c r="B101">
-        <v>72.79093974659403</v>
       </c>
       <c r="C101">
         <v>59.70939076842318</v>
@@ -2723,10 +2723,10 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102">
+        <v>63.74572579571448</v>
+      </c>
+      <c r="B102">
         <v>200605</v>
-      </c>
-      <c r="B102">
-        <v>63.74572579571448</v>
       </c>
       <c r="C102">
         <v>72.79093974659403</v>
@@ -2746,10 +2746,10 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103">
+        <v>74.50169737668094</v>
+      </c>
+      <c r="B103">
         <v>200606</v>
-      </c>
-      <c r="B103">
-        <v>74.50169737668094</v>
       </c>
       <c r="C103">
         <v>63.74572579571448</v>
@@ -2769,10 +2769,10 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104">
+        <v>67.19684281461036</v>
+      </c>
+      <c r="B104">
         <v>200607</v>
-      </c>
-      <c r="B104">
-        <v>67.19684281461036</v>
       </c>
       <c r="C104">
         <v>74.50169737668094</v>
@@ -2792,10 +2792,10 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105">
+        <v>56.01409812878934</v>
+      </c>
+      <c r="B105">
         <v>200608</v>
-      </c>
-      <c r="B105">
-        <v>56.01409812878934</v>
       </c>
       <c r="C105">
         <v>67.19684281461036</v>
@@ -2815,10 +2815,10 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106">
+        <v>58.73457372291545</v>
+      </c>
+      <c r="B106">
         <v>200609</v>
-      </c>
-      <c r="B106">
-        <v>58.73457372291545</v>
       </c>
       <c r="C106">
         <v>56.01409812878934</v>
@@ -2838,10 +2838,10 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107">
+        <v>58.04885888297282</v>
+      </c>
+      <c r="B107">
         <v>200610</v>
-      </c>
-      <c r="B107">
-        <v>58.04885888297282</v>
       </c>
       <c r="C107">
         <v>58.73457372291545</v>
@@ -2861,10 +2861,10 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108">
+        <v>55.40004429634612</v>
+      </c>
+      <c r="B108">
         <v>200611</v>
-      </c>
-      <c r="B108">
-        <v>55.40004429634612</v>
       </c>
       <c r="C108">
         <v>58.04885888297282</v>
@@ -2884,10 +2884,10 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109">
+        <v>54.53371718964145</v>
+      </c>
+      <c r="B109">
         <v>200612</v>
-      </c>
-      <c r="B109">
-        <v>54.53371718964145</v>
       </c>
       <c r="C109">
         <v>55.40004429634612</v>
@@ -2907,10 +2907,10 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110">
+        <v>64.28945835999691</v>
+      </c>
+      <c r="B110">
         <v>200701</v>
-      </c>
-      <c r="B110">
-        <v>64.28945835999691</v>
       </c>
       <c r="C110">
         <v>54.53371718964145</v>
@@ -2930,10 +2930,10 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111">
+        <v>52.99236073730477</v>
+      </c>
+      <c r="B111">
         <v>200702</v>
-      </c>
-      <c r="B111">
-        <v>52.99236073730477</v>
       </c>
       <c r="C111">
         <v>64.28945835999691</v>
@@ -2953,10 +2953,10 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112">
+        <v>61.62974379787652</v>
+      </c>
+      <c r="B112">
         <v>200703</v>
-      </c>
-      <c r="B112">
-        <v>61.62974379787652</v>
       </c>
       <c r="C112">
         <v>52.99236073730477</v>
@@ -2976,10 +2976,10 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113">
+        <v>58.07159696110219</v>
+      </c>
+      <c r="B113">
         <v>200704</v>
-      </c>
-      <c r="B113">
-        <v>58.07159696110219</v>
       </c>
       <c r="C113">
         <v>61.62974379787652</v>
@@ -2999,10 +2999,10 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114">
+        <v>55.64627552839061</v>
+      </c>
+      <c r="B114">
         <v>200705</v>
-      </c>
-      <c r="B114">
-        <v>55.64627552839061</v>
       </c>
       <c r="C114">
         <v>58.07159696110219</v>
@@ -3022,10 +3022,10 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115">
+        <v>56.78341293838668</v>
+      </c>
+      <c r="B115">
         <v>200706</v>
-      </c>
-      <c r="B115">
-        <v>56.78341293838668</v>
       </c>
       <c r="C115">
         <v>55.64627552839061</v>
@@ -3045,10 +3045,10 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116">
+        <v>50.31400767928769</v>
+      </c>
+      <c r="B116">
         <v>200707</v>
-      </c>
-      <c r="B116">
-        <v>50.31400767928769</v>
       </c>
       <c r="C116">
         <v>56.78341293838668</v>
@@ -3068,10 +3068,10 @@
     </row>
     <row r="117" spans="1:7">
       <c r="A117">
+        <v>76.41989179306275</v>
+      </c>
+      <c r="B117">
         <v>200708</v>
-      </c>
-      <c r="B117">
-        <v>76.41989179306275</v>
       </c>
       <c r="C117">
         <v>50.31400767928769</v>
@@ -3091,10 +3091,10 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118">
+        <v>99.71756505069908</v>
+      </c>
+      <c r="B118">
         <v>200709</v>
-      </c>
-      <c r="B118">
-        <v>99.71756505069908</v>
       </c>
       <c r="C118">
         <v>76.41989179306275</v>
@@ -3114,10 +3114,10 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119">
+        <v>78.23215834689994</v>
+      </c>
+      <c r="B119">
         <v>200710</v>
-      </c>
-      <c r="B119">
-        <v>78.23215834689994</v>
       </c>
       <c r="C119">
         <v>99.71756505069908</v>
@@ -3137,10 +3137,10 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120">
+        <v>83.60119187228239</v>
+      </c>
+      <c r="B120">
         <v>200711</v>
-      </c>
-      <c r="B120">
-        <v>83.60119187228239</v>
       </c>
       <c r="C120">
         <v>78.23215834689994</v>
@@ -3160,10 +3160,10 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121">
+        <v>92.56929060457955</v>
+      </c>
+      <c r="B121">
         <v>200712</v>
-      </c>
-      <c r="B121">
-        <v>92.56929060457955</v>
       </c>
       <c r="C121">
         <v>83.60119187228239</v>
@@ -3183,10 +3183,10 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122">
+        <v>135.2492718047804</v>
+      </c>
+      <c r="B122">
         <v>200801</v>
-      </c>
-      <c r="B122">
-        <v>135.2492718047804</v>
       </c>
       <c r="C122">
         <v>92.56929060457955</v>
@@ -3206,10 +3206,10 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123">
+        <v>104.142288258719</v>
+      </c>
+      <c r="B123">
         <v>200802</v>
-      </c>
-      <c r="B123">
-        <v>104.142288258719</v>
       </c>
       <c r="C123">
         <v>135.2492718047804</v>
@@ -3229,10 +3229,10 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124">
+        <v>114.9154357338147</v>
+      </c>
+      <c r="B124">
         <v>200803</v>
-      </c>
-      <c r="B124">
-        <v>114.9154357338147</v>
       </c>
       <c r="C124">
         <v>104.142288258719</v>
@@ -3252,10 +3252,10 @@
     </row>
     <row r="125" spans="1:7">
       <c r="A125">
+        <v>91.48992031220463</v>
+      </c>
+      <c r="B125">
         <v>200804</v>
-      </c>
-      <c r="B125">
-        <v>91.48992031220463</v>
       </c>
       <c r="C125">
         <v>114.9154357338147</v>
@@ -3275,10 +3275,10 @@
     </row>
     <row r="126" spans="1:7">
       <c r="A126">
+        <v>75.8793757868673</v>
+      </c>
+      <c r="B126">
         <v>200805</v>
-      </c>
-      <c r="B126">
-        <v>75.8793757868673</v>
       </c>
       <c r="C126">
         <v>91.48992031220463</v>
@@ -3298,10 +3298,10 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127">
+        <v>90.06747254806487</v>
+      </c>
+      <c r="B127">
         <v>200806</v>
-      </c>
-      <c r="B127">
-        <v>90.06747254806487</v>
       </c>
       <c r="C127">
         <v>75.8793757868673</v>
@@ -3321,10 +3321,10 @@
     </row>
     <row r="128" spans="1:7">
       <c r="A128">
+        <v>91.29365506230673</v>
+      </c>
+      <c r="B128">
         <v>200807</v>
-      </c>
-      <c r="B128">
-        <v>91.29365506230673</v>
       </c>
       <c r="C128">
         <v>90.06747254806487</v>
@@ -3344,10 +3344,10 @@
     </row>
     <row r="129" spans="1:7">
       <c r="A129">
+        <v>90.40608226344349</v>
+      </c>
+      <c r="B129">
         <v>200808</v>
-      </c>
-      <c r="B129">
-        <v>90.40608226344349</v>
       </c>
       <c r="C129">
         <v>91.29365506230673</v>
@@ -3367,10 +3367,10 @@
     </row>
     <row r="130" spans="1:7">
       <c r="A130">
+        <v>171.9552591174643</v>
+      </c>
+      <c r="B130">
         <v>200809</v>
-      </c>
-      <c r="B130">
-        <v>171.9552591174643</v>
       </c>
       <c r="C130">
         <v>90.40608226344349</v>
@@ -3390,10 +3390,10 @@
     </row>
     <row r="131" spans="1:7">
       <c r="A131">
+        <v>200.7254039824782</v>
+      </c>
+      <c r="B131">
         <v>200810</v>
-      </c>
-      <c r="B131">
-        <v>200.7254039824782</v>
       </c>
       <c r="C131">
         <v>171.9552591174643</v>
@@ -3413,10 +3413,10 @@
     </row>
     <row r="132" spans="1:7">
       <c r="A132">
+        <v>142.5385501763036</v>
+      </c>
+      <c r="B132">
         <v>200811</v>
-      </c>
-      <c r="B132">
-        <v>142.5385501763036</v>
       </c>
       <c r="C132">
         <v>200.7254039824782</v>
@@ -3436,10 +3436,10 @@
     </row>
     <row r="133" spans="1:7">
       <c r="A133">
+        <v>145.8299623484092</v>
+      </c>
+      <c r="B133">
         <v>200812</v>
-      </c>
-      <c r="B133">
-        <v>145.8299623484092</v>
       </c>
       <c r="C133">
         <v>142.5385501763036</v>
@@ -3459,10 +3459,10 @@
     </row>
     <row r="134" spans="1:7">
       <c r="A134">
+        <v>147.1460584322329</v>
+      </c>
+      <c r="B134">
         <v>200901</v>
-      </c>
-      <c r="B134">
-        <v>147.1460584322329</v>
       </c>
       <c r="C134">
         <v>145.8299623484092</v>
@@ -3482,10 +3482,10 @@
     </row>
     <row r="135" spans="1:7">
       <c r="A135">
+        <v>150.4371225621219</v>
+      </c>
+      <c r="B135">
         <v>200902</v>
-      </c>
-      <c r="B135">
-        <v>150.4371225621219</v>
       </c>
       <c r="C135">
         <v>147.1460584322329</v>
@@ -3505,10 +3505,10 @@
     </row>
     <row r="136" spans="1:7">
       <c r="A136">
+        <v>131.6057406218468</v>
+      </c>
+      <c r="B136">
         <v>200903</v>
-      </c>
-      <c r="B136">
-        <v>131.6057406218468</v>
       </c>
       <c r="C136">
         <v>150.4371225621219</v>
@@ -3528,10 +3528,10 @@
     </row>
     <row r="137" spans="1:7">
       <c r="A137">
+        <v>103.4767505475356</v>
+      </c>
+      <c r="B137">
         <v>200904</v>
-      </c>
-      <c r="B137">
-        <v>103.4767505475356</v>
       </c>
       <c r="C137">
         <v>131.6057406218468</v>
@@ -3551,10 +3551,10 @@
     </row>
     <row r="138" spans="1:7">
       <c r="A138">
+        <v>101.0673631741945</v>
+      </c>
+      <c r="B138">
         <v>200905</v>
-      </c>
-      <c r="B138">
-        <v>101.0673631741945</v>
       </c>
       <c r="C138">
         <v>103.4767505475356</v>
@@ -3574,10 +3574,10 @@
     </row>
     <row r="139" spans="1:7">
       <c r="A139">
+        <v>100.0155879996309</v>
+      </c>
+      <c r="B139">
         <v>200906</v>
-      </c>
-      <c r="B139">
-        <v>100.0155879996309</v>
       </c>
       <c r="C139">
         <v>101.0673631741945</v>
@@ -3597,10 +3597,10 @@
     </row>
     <row r="140" spans="1:7">
       <c r="A140">
+        <v>94.41584511576772</v>
+      </c>
+      <c r="B140">
         <v>200907</v>
-      </c>
-      <c r="B140">
-        <v>94.41584511576772</v>
       </c>
       <c r="C140">
         <v>100.0155879996309</v>
@@ -3620,10 +3620,10 @@
     </row>
     <row r="141" spans="1:7">
       <c r="A141">
+        <v>92.59463429891849</v>
+      </c>
+      <c r="B141">
         <v>200908</v>
-      </c>
-      <c r="B141">
-        <v>92.59463429891849</v>
       </c>
       <c r="C141">
         <v>94.41584511576772</v>
@@ -3643,10 +3643,10 @@
     </row>
     <row r="142" spans="1:7">
       <c r="A142">
+        <v>93.40597786583395</v>
+      </c>
+      <c r="B142">
         <v>200909</v>
-      </c>
-      <c r="B142">
-        <v>93.40597786583395</v>
       </c>
       <c r="C142">
         <v>92.59463429891849</v>
@@ -3666,10 +3666,10 @@
     </row>
     <row r="143" spans="1:7">
       <c r="A143">
+        <v>80.01234006373926</v>
+      </c>
+      <c r="B143">
         <v>200910</v>
-      </c>
-      <c r="B143">
-        <v>80.01234006373926</v>
       </c>
       <c r="C143">
         <v>93.40597786583395</v>
@@ -3689,10 +3689,10 @@
     </row>
     <row r="144" spans="1:7">
       <c r="A144">
+        <v>92.51084429879008</v>
+      </c>
+      <c r="B144">
         <v>200911</v>
-      </c>
-      <c r="B144">
-        <v>92.51084429879008</v>
       </c>
       <c r="C144">
         <v>80.01234006373926</v>
@@ -3712,10 +3712,10 @@
     </row>
     <row r="145" spans="1:7">
       <c r="A145">
+        <v>93.43488784695117</v>
+      </c>
+      <c r="B145">
         <v>200912</v>
-      </c>
-      <c r="B145">
-        <v>93.43488784695117</v>
       </c>
       <c r="C145">
         <v>92.51084429879008</v>
@@ -3735,10 +3735,10 @@
     </row>
     <row r="146" spans="1:7">
       <c r="A146">
+        <v>108.5728087144127</v>
+      </c>
+      <c r="B146">
         <v>201001</v>
-      </c>
-      <c r="B146">
-        <v>108.5728087144127</v>
       </c>
       <c r="C146">
         <v>93.43488784695117</v>
@@ -3758,10 +3758,10 @@
     </row>
     <row r="147" spans="1:7">
       <c r="A147">
+        <v>106.0384787620311</v>
+      </c>
+      <c r="B147">
         <v>201002</v>
-      </c>
-      <c r="B147">
-        <v>106.0384787620311</v>
       </c>
       <c r="C147">
         <v>108.5728087144127</v>
@@ -3781,10 +3781,10 @@
     </row>
     <row r="148" spans="1:7">
       <c r="A148">
+        <v>98.57149070751245</v>
+      </c>
+      <c r="B148">
         <v>201003</v>
-      </c>
-      <c r="B148">
-        <v>98.57149070751245</v>
       </c>
       <c r="C148">
         <v>106.0384787620311</v>
@@ -3804,10 +3804,10 @@
     </row>
     <row r="149" spans="1:7">
       <c r="A149">
+        <v>98.0518259295626</v>
+      </c>
+      <c r="B149">
         <v>201004</v>
-      </c>
-      <c r="B149">
-        <v>98.0518259295626</v>
       </c>
       <c r="C149">
         <v>98.57149070751245</v>
@@ -3827,10 +3827,10 @@
     </row>
     <row r="150" spans="1:7">
       <c r="A150">
+        <v>146.7358638058839</v>
+      </c>
+      <c r="B150">
         <v>201005</v>
-      </c>
-      <c r="B150">
-        <v>146.7358638058839</v>
       </c>
       <c r="C150">
         <v>98.0518259295626</v>
@@ -3850,10 +3850,10 @@
     </row>
     <row r="151" spans="1:7">
       <c r="A151">
+        <v>127.4451249115982</v>
+      </c>
+      <c r="B151">
         <v>201006</v>
-      </c>
-      <c r="B151">
-        <v>127.4451249115982</v>
       </c>
       <c r="C151">
         <v>146.7358638058839</v>
@@ -3873,10 +3873,10 @@
     </row>
     <row r="152" spans="1:7">
       <c r="A152">
+        <v>134.4759591420978</v>
+      </c>
+      <c r="B152">
         <v>201007</v>
-      </c>
-      <c r="B152">
-        <v>134.4759591420978</v>
       </c>
       <c r="C152">
         <v>127.4451249115982</v>
@@ -3896,10 +3896,10 @@
     </row>
     <row r="153" spans="1:7">
       <c r="A153">
+        <v>119.5156894619848</v>
+      </c>
+      <c r="B153">
         <v>201008</v>
-      </c>
-      <c r="B153">
-        <v>119.5156894619848</v>
       </c>
       <c r="C153">
         <v>134.4759591420978</v>
@@ -3919,10 +3919,10 @@
     </row>
     <row r="154" spans="1:7">
       <c r="A154">
+        <v>131.7645848565008</v>
+      </c>
+      <c r="B154">
         <v>201009</v>
-      </c>
-      <c r="B154">
-        <v>131.7645848565008</v>
       </c>
       <c r="C154">
         <v>119.5156894619848</v>
@@ -3942,10 +3942,10 @@
     </row>
     <row r="155" spans="1:7">
       <c r="A155">
+        <v>116.9082564334391</v>
+      </c>
+      <c r="B155">
         <v>201010</v>
-      </c>
-      <c r="B155">
-        <v>116.9082564334391</v>
       </c>
       <c r="C155">
         <v>131.7645848565008</v>
@@ -3965,10 +3965,10 @@
     </row>
     <row r="156" spans="1:7">
       <c r="A156">
+        <v>122.3680598505425</v>
+      </c>
+      <c r="B156">
         <v>201011</v>
-      </c>
-      <c r="B156">
-        <v>122.3680598505425</v>
       </c>
       <c r="C156">
         <v>116.9082564334391</v>
@@ -3988,10 +3988,10 @@
     </row>
     <row r="157" spans="1:7">
       <c r="A157">
+        <v>122.9023950895545</v>
+      </c>
+      <c r="B157">
         <v>201012</v>
-      </c>
-      <c r="B157">
-        <v>122.9023950895545</v>
       </c>
       <c r="C157">
         <v>122.3680598505425</v>
@@ -4011,10 +4011,10 @@
     </row>
     <row r="158" spans="1:7">
       <c r="A158">
+        <v>105.3011656341764</v>
+      </c>
+      <c r="B158">
         <v>201101</v>
-      </c>
-      <c r="B158">
-        <v>105.3011656341764</v>
       </c>
       <c r="C158">
         <v>122.9023950895545</v>
@@ -4034,10 +4034,10 @@
     </row>
     <row r="159" spans="1:7">
       <c r="A159">
+        <v>88.28314312031645</v>
+      </c>
+      <c r="B159">
         <v>201102</v>
-      </c>
-      <c r="B159">
-        <v>88.28314312031645</v>
       </c>
       <c r="C159">
         <v>105.3011656341764</v>
@@ -4057,10 +4057,10 @@
     </row>
     <row r="160" spans="1:7">
       <c r="A160">
+        <v>121.5154131141844</v>
+      </c>
+      <c r="B160">
         <v>201103</v>
-      </c>
-      <c r="B160">
-        <v>121.5154131141844</v>
       </c>
       <c r="C160">
         <v>88.28314312031645</v>
@@ -4080,10 +4080,10 @@
     </row>
     <row r="161" spans="1:7">
       <c r="A161">
+        <v>111.3648483850961</v>
+      </c>
+      <c r="B161">
         <v>201104</v>
-      </c>
-      <c r="B161">
-        <v>111.3648483850961</v>
       </c>
       <c r="C161">
         <v>121.5154131141844</v>
@@ -4103,10 +4103,10 @@
     </row>
     <row r="162" spans="1:7">
       <c r="A162">
+        <v>82.29897363968374</v>
+      </c>
+      <c r="B162">
         <v>201105</v>
-      </c>
-      <c r="B162">
-        <v>82.29897363968374</v>
       </c>
       <c r="C162">
         <v>111.3648483850961</v>
@@ -4126,10 +4126,10 @@
     </row>
     <row r="163" spans="1:7">
       <c r="A163">
+        <v>109.4397737311756</v>
+      </c>
+      <c r="B163">
         <v>201106</v>
-      </c>
-      <c r="B163">
-        <v>109.4397737311756</v>
       </c>
       <c r="C163">
         <v>82.29897363968374</v>
@@ -4149,10 +4149,10 @@
     </row>
     <row r="164" spans="1:7">
       <c r="A164">
+        <v>158.3040090705153</v>
+      </c>
+      <c r="B164">
         <v>201107</v>
-      </c>
-      <c r="B164">
-        <v>158.3040090705153</v>
       </c>
       <c r="C164">
         <v>109.4397737311756</v>
@@ -4172,10 +4172,10 @@
     </row>
     <row r="165" spans="1:7">
       <c r="A165">
+        <v>211.4641287456856</v>
+      </c>
+      <c r="B165">
         <v>201108</v>
-      </c>
-      <c r="B165">
-        <v>211.4641287456856</v>
       </c>
       <c r="C165">
         <v>158.3040090705153</v>
@@ -4195,10 +4195,10 @@
     </row>
     <row r="166" spans="1:7">
       <c r="A166">
+        <v>186.6918758420994</v>
+      </c>
+      <c r="B166">
         <v>201109</v>
-      </c>
-      <c r="B166">
-        <v>186.6918758420994</v>
       </c>
       <c r="C166">
         <v>211.4641287456856</v>
@@ -4218,10 +4218,10 @@
     </row>
     <row r="167" spans="1:7">
       <c r="A167">
+        <v>162.7302641799756</v>
+      </c>
+      <c r="B167">
         <v>201110</v>
-      </c>
-      <c r="B167">
-        <v>162.7302641799756</v>
       </c>
       <c r="C167">
         <v>186.6918758420994</v>
@@ -4241,10 +4241,10 @@
     </row>
     <row r="168" spans="1:7">
       <c r="A168">
+        <v>202.7321746657813</v>
+      </c>
+      <c r="B168">
         <v>201111</v>
-      </c>
-      <c r="B168">
-        <v>202.7321746657813</v>
       </c>
       <c r="C168">
         <v>162.7302641799756</v>
@@ -4264,10 +4264,10 @@
     </row>
     <row r="169" spans="1:7">
       <c r="A169">
+        <v>183.1564645152344</v>
+      </c>
+      <c r="B169">
         <v>201112</v>
-      </c>
-      <c r="B169">
-        <v>183.1564645152344</v>
       </c>
       <c r="C169">
         <v>202.7321746657813</v>
@@ -4287,10 +4287,10 @@
     </row>
     <row r="170" spans="1:7">
       <c r="A170">
+        <v>166.6057723806515</v>
+      </c>
+      <c r="B170">
         <v>201201</v>
-      </c>
-      <c r="B170">
-        <v>166.6057723806515</v>
       </c>
       <c r="C170">
         <v>183.1564645152344</v>
@@ -4310,10 +4310,10 @@
     </row>
     <row r="171" spans="1:7">
       <c r="A171">
+        <v>142.1236816362229</v>
+      </c>
+      <c r="B171">
         <v>201202</v>
-      </c>
-      <c r="B171">
-        <v>142.1236816362229</v>
       </c>
       <c r="C171">
         <v>166.6057723806515</v>
@@ -4333,10 +4333,10 @@
     </row>
     <row r="172" spans="1:7">
       <c r="A172">
+        <v>135.4398793157956</v>
+      </c>
+      <c r="B172">
         <v>201203</v>
-      </c>
-      <c r="B172">
-        <v>135.4398793157956</v>
       </c>
       <c r="C172">
         <v>142.1236816362229</v>
@@ -4356,10 +4356,10 @@
     </row>
     <row r="173" spans="1:7">
       <c r="A173">
+        <v>122.4402029757249</v>
+      </c>
+      <c r="B173">
         <v>201204</v>
-      </c>
-      <c r="B173">
-        <v>122.4402029757249</v>
       </c>
       <c r="C173">
         <v>135.4398793157956</v>
@@ -4379,10 +4379,10 @@
     </row>
     <row r="174" spans="1:7">
       <c r="A174">
+        <v>157.902706113388</v>
+      </c>
+      <c r="B174">
         <v>201205</v>
-      </c>
-      <c r="B174">
-        <v>157.902706113388</v>
       </c>
       <c r="C174">
         <v>122.4402029757249</v>
@@ -4402,10 +4402,10 @@
     </row>
     <row r="175" spans="1:7">
       <c r="A175">
+        <v>191.3996900184574</v>
+      </c>
+      <c r="B175">
         <v>201206</v>
-      </c>
-      <c r="B175">
-        <v>191.3996900184574</v>
       </c>
       <c r="C175">
         <v>157.902706113388</v>
@@ -4425,10 +4425,10 @@
     </row>
     <row r="176" spans="1:7">
       <c r="A176">
+        <v>162.2345683846646</v>
+      </c>
+      <c r="B176">
         <v>201207</v>
-      </c>
-      <c r="B176">
-        <v>162.2345683846646</v>
       </c>
       <c r="C176">
         <v>191.3996900184574</v>
@@ -4448,10 +4448,10 @@
     </row>
     <row r="177" spans="1:7">
       <c r="A177">
+        <v>126.3888763885234</v>
+      </c>
+      <c r="B177">
         <v>201208</v>
-      </c>
-      <c r="B177">
-        <v>126.3888763885234</v>
       </c>
       <c r="C177">
         <v>162.2345683846646</v>
@@ -4471,10 +4471,10 @@
     </row>
     <row r="178" spans="1:7">
       <c r="A178">
+        <v>148.4439299326979</v>
+      </c>
+      <c r="B178">
         <v>201209</v>
-      </c>
-      <c r="B178">
-        <v>148.4439299326979</v>
       </c>
       <c r="C178">
         <v>126.3888763885234</v>
@@ -4494,10 +4494,10 @@
     </row>
     <row r="179" spans="1:7">
       <c r="A179">
+        <v>164.6449433715737</v>
+      </c>
+      <c r="B179">
         <v>201210</v>
-      </c>
-      <c r="B179">
-        <v>164.6449433715737</v>
       </c>
       <c r="C179">
         <v>148.4439299326979</v>
@@ -4517,10 +4517,10 @@
     </row>
     <row r="180" spans="1:7">
       <c r="A180">
+        <v>178.5045758096801</v>
+      </c>
+      <c r="B180">
         <v>201211</v>
-      </c>
-      <c r="B180">
-        <v>178.5045758096801</v>
       </c>
       <c r="C180">
         <v>164.6449433715737</v>
@@ -4540,10 +4540,10 @@
     </row>
     <row r="181" spans="1:7">
       <c r="A181">
+        <v>164.5732216815458</v>
+      </c>
+      <c r="B181">
         <v>201212</v>
-      </c>
-      <c r="B181">
-        <v>164.5732216815458</v>
       </c>
       <c r="C181">
         <v>178.5045758096801</v>
@@ -4563,10 +4563,10 @@
     </row>
     <row r="182" spans="1:7">
       <c r="A182">
+        <v>166.1780801906645</v>
+      </c>
+      <c r="B182">
         <v>201301</v>
-      </c>
-      <c r="B182">
-        <v>166.1780801906645</v>
       </c>
       <c r="C182">
         <v>164.5732216815458</v>
@@ -4586,10 +4586,10 @@
     </row>
     <row r="183" spans="1:7">
       <c r="A183">
+        <v>125.4762110622331</v>
+      </c>
+      <c r="B183">
         <v>201302</v>
-      </c>
-      <c r="B183">
-        <v>125.4762110622331</v>
       </c>
       <c r="C183">
         <v>166.1780801906645</v>
@@ -4609,10 +4609,10 @@
     </row>
     <row r="184" spans="1:7">
       <c r="A184">
+        <v>136.8698757134407</v>
+      </c>
+      <c r="B184">
         <v>201303</v>
-      </c>
-      <c r="B184">
-        <v>136.8698757134407</v>
       </c>
       <c r="C184">
         <v>125.4762110622331</v>
@@ -4632,10 +4632,10 @@
     </row>
     <row r="185" spans="1:7">
       <c r="A185">
+        <v>129.9403049259096</v>
+      </c>
+      <c r="B185">
         <v>201304</v>
-      </c>
-      <c r="B185">
-        <v>129.9403049259096</v>
       </c>
       <c r="C185">
         <v>136.8698757134407</v>
@@ -4655,10 +4655,10 @@
     </row>
     <row r="186" spans="1:7">
       <c r="A186">
+        <v>102.1876247181668</v>
+      </c>
+      <c r="B186">
         <v>201305</v>
-      </c>
-      <c r="B186">
-        <v>102.1876247181668</v>
       </c>
       <c r="C186">
         <v>129.9403049259096</v>
@@ -4678,10 +4678,10 @@
     </row>
     <row r="187" spans="1:7">
       <c r="A187">
+        <v>109.9957341921154</v>
+      </c>
+      <c r="B187">
         <v>201306</v>
-      </c>
-      <c r="B187">
-        <v>109.9957341921154</v>
       </c>
       <c r="C187">
         <v>102.1876247181668</v>
@@ -4701,10 +4701,10 @@
     </row>
     <row r="188" spans="1:7">
       <c r="A188">
+        <v>107.0630025264685</v>
+      </c>
+      <c r="B188">
         <v>201307</v>
-      </c>
-      <c r="B188">
-        <v>107.0630025264685</v>
       </c>
       <c r="C188">
         <v>109.9957341921154</v>
@@ -4724,10 +4724,10 @@
     </row>
     <row r="189" spans="1:7">
       <c r="A189">
+        <v>115.424874345381</v>
+      </c>
+      <c r="B189">
         <v>201308</v>
-      </c>
-      <c r="B189">
-        <v>115.424874345381</v>
       </c>
       <c r="C189">
         <v>107.0630025264685</v>
@@ -4747,10 +4747,10 @@
     </row>
     <row r="190" spans="1:7">
       <c r="A190">
+        <v>125.14461378662</v>
+      </c>
+      <c r="B190">
         <v>201309</v>
-      </c>
-      <c r="B190">
-        <v>125.14461378662</v>
       </c>
       <c r="C190">
         <v>115.424874345381</v>
@@ -4770,10 +4770,10 @@
     </row>
     <row r="191" spans="1:7">
       <c r="A191">
+        <v>146.8135135798357</v>
+      </c>
+      <c r="B191">
         <v>201310</v>
-      </c>
-      <c r="B191">
-        <v>146.8135135798357</v>
       </c>
       <c r="C191">
         <v>125.14461378662</v>
@@ -4793,10 +4793,10 @@
     </row>
     <row r="192" spans="1:7">
       <c r="A192">
+        <v>86.76333071610222</v>
+      </c>
+      <c r="B192">
         <v>201311</v>
-      </c>
-      <c r="B192">
-        <v>86.76333071610222</v>
       </c>
       <c r="C192">
         <v>146.8135135798357</v>
@@ -4816,10 +4816,10 @@
     </row>
     <row r="193" spans="1:7">
       <c r="A193">
+        <v>112.4129542121071</v>
+      </c>
+      <c r="B193">
         <v>201312</v>
-      </c>
-      <c r="B193">
-        <v>112.4129542121071</v>
       </c>
       <c r="C193">
         <v>86.76333071610222</v>
@@ -4839,10 +4839,10 @@
     </row>
     <row r="194" spans="1:7">
       <c r="A194">
+        <v>105.5080028067333</v>
+      </c>
+      <c r="B194">
         <v>201401</v>
-      </c>
-      <c r="B194">
-        <v>105.5080028067333</v>
       </c>
       <c r="C194">
         <v>112.4129542121071</v>
@@ -4862,10 +4862,10 @@
     </row>
     <row r="195" spans="1:7">
       <c r="A195">
+        <v>93.79061835291878</v>
+      </c>
+      <c r="B195">
         <v>201402</v>
-      </c>
-      <c r="B195">
-        <v>93.79061835291878</v>
       </c>
       <c r="C195">
         <v>105.5080028067333</v>
@@ -4885,10 +4885,10 @@
     </row>
     <row r="196" spans="1:7">
       <c r="A196">
+        <v>109.1212359246343</v>
+      </c>
+      <c r="B196">
         <v>201403</v>
-      </c>
-      <c r="B196">
-        <v>109.1212359246343</v>
       </c>
       <c r="C196">
         <v>93.79061835291878</v>
@@ -4908,10 +4908,10 @@
     </row>
     <row r="197" spans="1:7">
       <c r="A197">
+        <v>90.57763605088459</v>
+      </c>
+      <c r="B197">
         <v>201404</v>
-      </c>
-      <c r="B197">
-        <v>90.57763605088459</v>
       </c>
       <c r="C197">
         <v>109.1212359246343</v>
@@ -4931,10 +4931,10 @@
     </row>
     <row r="198" spans="1:7">
       <c r="A198">
+        <v>99.04244847018028</v>
+      </c>
+      <c r="B198">
         <v>201405</v>
-      </c>
-      <c r="B198">
-        <v>99.04244847018028</v>
       </c>
       <c r="C198">
         <v>90.57763605088459</v>
@@ -4954,10 +4954,10 @@
     </row>
     <row r="199" spans="1:7">
       <c r="A199">
+        <v>80.42153720797467</v>
+      </c>
+      <c r="B199">
         <v>201406</v>
-      </c>
-      <c r="B199">
-        <v>80.42153720797467</v>
       </c>
       <c r="C199">
         <v>99.04244847018028</v>
@@ -4977,10 +4977,10 @@
     </row>
     <row r="200" spans="1:7">
       <c r="A200">
+        <v>89.26062399509577</v>
+      </c>
+      <c r="B200">
         <v>201407</v>
-      </c>
-      <c r="B200">
-        <v>89.26062399509577</v>
       </c>
       <c r="C200">
         <v>80.42153720797467</v>
@@ -5000,10 +5000,10 @@
     </row>
     <row r="201" spans="1:7">
       <c r="A201">
+        <v>100.6078486493401</v>
+      </c>
+      <c r="B201">
         <v>201408</v>
-      </c>
-      <c r="B201">
-        <v>100.6078486493401</v>
       </c>
       <c r="C201">
         <v>89.26062399509577</v>
@@ -5023,10 +5023,10 @@
     </row>
     <row r="202" spans="1:7">
       <c r="A202">
+        <v>123.0002756190488</v>
+      </c>
+      <c r="B202">
         <v>201409</v>
-      </c>
-      <c r="B202">
-        <v>123.0002756190488</v>
       </c>
       <c r="C202">
         <v>100.6078486493401</v>
@@ -5046,10 +5046,10 @@
     </row>
     <row r="203" spans="1:7">
       <c r="A203">
+        <v>123.5835973767575</v>
+      </c>
+      <c r="B203">
         <v>201410</v>
-      </c>
-      <c r="B203">
-        <v>123.5835973767575</v>
       </c>
       <c r="C203">
         <v>123.0002756190488</v>
@@ -5069,10 +5069,10 @@
     </row>
     <row r="204" spans="1:7">
       <c r="A204">
+        <v>105.9019368644283</v>
+      </c>
+      <c r="B204">
         <v>201411</v>
-      </c>
-      <c r="B204">
-        <v>105.9019368644283</v>
       </c>
       <c r="C204">
         <v>123.5835973767575</v>
@@ -5092,10 +5092,10 @@
     </row>
     <row r="205" spans="1:7">
       <c r="A205">
+        <v>109.8895386348692</v>
+      </c>
+      <c r="B205">
         <v>201412</v>
-      </c>
-      <c r="B205">
-        <v>109.8895386348692</v>
       </c>
       <c r="C205">
         <v>105.9019368644283</v>
@@ -5115,10 +5115,10 @@
     </row>
     <row r="206" spans="1:7">
       <c r="A206">
+        <v>141.0937716279024</v>
+      </c>
+      <c r="B206">
         <v>201501</v>
-      </c>
-      <c r="B206">
-        <v>141.0937716279024</v>
       </c>
       <c r="C206">
         <v>109.8895386348692</v>
@@ -5138,10 +5138,10 @@
     </row>
     <row r="207" spans="1:7">
       <c r="A207">
+        <v>108.206666464529</v>
+      </c>
+      <c r="B207">
         <v>201502</v>
-      </c>
-      <c r="B207">
-        <v>108.206666464529</v>
       </c>
       <c r="C207">
         <v>141.0937716279024</v>
@@ -5161,10 +5161,10 @@
     </row>
     <row r="208" spans="1:7">
       <c r="A208">
+        <v>93.73680042552589</v>
+      </c>
+      <c r="B208">
         <v>201503</v>
-      </c>
-      <c r="B208">
-        <v>93.73680042552589</v>
       </c>
       <c r="C208">
         <v>108.206666464529</v>
@@ -5184,10 +5184,10 @@
     </row>
     <row r="209" spans="1:7">
       <c r="A209">
+        <v>101.0334851226623</v>
+      </c>
+      <c r="B209">
         <v>201504</v>
-      </c>
-      <c r="B209">
-        <v>101.0334851226623</v>
       </c>
       <c r="C209">
         <v>93.73680042552589</v>
@@ -5207,10 +5207,10 @@
     </row>
     <row r="210" spans="1:7">
       <c r="A210">
+        <v>105.4707782087072</v>
+      </c>
+      <c r="B210">
         <v>201505</v>
-      </c>
-      <c r="B210">
-        <v>105.4707782087072</v>
       </c>
       <c r="C210">
         <v>101.0334851226623</v>
@@ -5230,10 +5230,10 @@
     </row>
     <row r="211" spans="1:7">
       <c r="A211">
+        <v>114.2308956438319</v>
+      </c>
+      <c r="B211">
         <v>201506</v>
-      </c>
-      <c r="B211">
-        <v>114.2308956438319</v>
       </c>
       <c r="C211">
         <v>105.4707782087072</v>
@@ -5253,10 +5253,10 @@
     </row>
     <row r="212" spans="1:7">
       <c r="A212">
+        <v>133.0010672312638</v>
+      </c>
+      <c r="B212">
         <v>201507</v>
-      </c>
-      <c r="B212">
-        <v>133.0010672312638</v>
       </c>
       <c r="C212">
         <v>114.2308956438319</v>
@@ -5276,10 +5276,10 @@
     </row>
     <row r="213" spans="1:7">
       <c r="A213">
+        <v>140.9337311643336</v>
+      </c>
+      <c r="B213">
         <v>201508</v>
-      </c>
-      <c r="B213">
-        <v>140.9337311643336</v>
       </c>
       <c r="C213">
         <v>133.0010672312638</v>
@@ -5299,10 +5299,10 @@
     </row>
     <row r="214" spans="1:7">
       <c r="A214">
+        <v>192.5164009813795</v>
+      </c>
+      <c r="B214">
         <v>201509</v>
-      </c>
-      <c r="B214">
-        <v>192.5164009813795</v>
       </c>
       <c r="C214">
         <v>140.9337311643336</v>
@@ -5322,10 +5322,10 @@
     </row>
     <row r="215" spans="1:7">
       <c r="A215">
+        <v>132.9291215249637</v>
+      </c>
+      <c r="B215">
         <v>201510</v>
-      </c>
-      <c r="B215">
-        <v>132.9291215249637</v>
       </c>
       <c r="C215">
         <v>192.5164009813795</v>
@@ -5345,10 +5345,10 @@
     </row>
     <row r="216" spans="1:7">
       <c r="A216">
+        <v>95.91206339613846</v>
+      </c>
+      <c r="B216">
         <v>201511</v>
-      </c>
-      <c r="B216">
-        <v>95.91206339613846</v>
       </c>
       <c r="C216">
         <v>132.9291215249637</v>
@@ -5368,10 +5368,10 @@
     </row>
     <row r="217" spans="1:7">
       <c r="A217">
+        <v>112.7450057207089</v>
+      </c>
+      <c r="B217">
         <v>201512</v>
-      </c>
-      <c r="B217">
-        <v>112.7450057207089</v>
       </c>
       <c r="C217">
         <v>95.91206339613846</v>
@@ -5391,10 +5391,10 @@
     </row>
     <row r="218" spans="1:7">
       <c r="A218">
+        <v>156.064442833525</v>
+      </c>
+      <c r="B218">
         <v>201601</v>
-      </c>
-      <c r="B218">
-        <v>156.064442833525</v>
       </c>
       <c r="C218">
         <v>112.7450057207089</v>
@@ -5414,10 +5414,10 @@
     </row>
     <row r="219" spans="1:7">
       <c r="A219">
+        <v>163.5087273570322</v>
+      </c>
+      <c r="B219">
         <v>201602</v>
-      </c>
-      <c r="B219">
-        <v>163.5087273570322</v>
       </c>
       <c r="C219">
         <v>156.064442833525</v>
@@ -5437,10 +5437,10 @@
     </row>
     <row r="220" spans="1:7">
       <c r="A220">
+        <v>171.2016720146468</v>
+      </c>
+      <c r="B220">
         <v>201603</v>
-      </c>
-      <c r="B220">
-        <v>171.2016720146468</v>
       </c>
       <c r="C220">
         <v>163.5087273570322</v>
@@ -5460,10 +5460,10 @@
     </row>
     <row r="221" spans="1:7">
       <c r="A221">
+        <v>146.2019115071041</v>
+      </c>
+      <c r="B221">
         <v>201604</v>
-      </c>
-      <c r="B221">
-        <v>146.2019115071041</v>
       </c>
       <c r="C221">
         <v>171.2016720146468</v>
@@ -5483,10 +5483,10 @@
     </row>
     <row r="222" spans="1:7">
       <c r="A222">
+        <v>137.7658890973099</v>
+      </c>
+      <c r="B222">
         <v>201605</v>
-      </c>
-      <c r="B222">
-        <v>137.7658890973099</v>
       </c>
       <c r="C222">
         <v>146.2019115071041</v>
@@ -5506,10 +5506,10 @@
     </row>
     <row r="223" spans="1:7">
       <c r="A223">
+        <v>254.5082107713456</v>
+      </c>
+      <c r="B223">
         <v>201606</v>
-      </c>
-      <c r="B223">
-        <v>254.5082107713456</v>
       </c>
       <c r="C223">
         <v>137.7658890973099</v>
@@ -5529,10 +5529,10 @@
     </row>
     <row r="224" spans="1:7">
       <c r="A224">
+        <v>264.7408637991653</v>
+      </c>
+      <c r="B224">
         <v>201607</v>
-      </c>
-      <c r="B224">
-        <v>264.7408637991653</v>
       </c>
       <c r="C224">
         <v>254.5082107713456</v>
@@ -5552,10 +5552,10 @@
     </row>
     <row r="225" spans="1:7">
       <c r="A225">
+        <v>150.526470837638</v>
+      </c>
+      <c r="B225">
         <v>201608</v>
-      </c>
-      <c r="B225">
-        <v>150.526470837638</v>
       </c>
       <c r="C225">
         <v>264.7408637991653</v>
@@ -5575,10 +5575,10 @@
     </row>
     <row r="226" spans="1:7">
       <c r="A226">
+        <v>161.3892292388398</v>
+      </c>
+      <c r="B226">
         <v>201609</v>
-      </c>
-      <c r="B226">
-        <v>161.3892292388398</v>
       </c>
       <c r="C226">
         <v>150.526470837638</v>
@@ -5598,10 +5598,10 @@
     </row>
     <row r="227" spans="1:7">
       <c r="A227">
+        <v>140.7590200894247</v>
+      </c>
+      <c r="B227">
         <v>201610</v>
-      </c>
-      <c r="B227">
-        <v>140.7590200894247</v>
       </c>
       <c r="C227">
         <v>161.3892292388398</v>
@@ -5621,10 +5621,10 @@
     </row>
     <row r="228" spans="1:7">
       <c r="A228">
+        <v>271.403445441946</v>
+      </c>
+      <c r="B228">
         <v>201611</v>
-      </c>
-      <c r="B228">
-        <v>271.403445441946</v>
       </c>
       <c r="C228">
         <v>140.7590200894247</v>
@@ -5644,10 +5644,10 @@
     </row>
     <row r="229" spans="1:7">
       <c r="A229">
+        <v>257.9134502491988</v>
+      </c>
+      <c r="B229">
         <v>201612</v>
-      </c>
-      <c r="B229">
-        <v>257.9134502491988</v>
       </c>
       <c r="C229">
         <v>271.403445441946</v>
@@ -5667,10 +5667,10 @@
     </row>
     <row r="230" spans="1:7">
       <c r="A230">
+        <v>283.2584674851161</v>
+      </c>
+      <c r="B230">
         <v>201701</v>
-      </c>
-      <c r="B230">
-        <v>283.2584674851161</v>
       </c>
       <c r="C230">
         <v>257.9134502491988</v>
@@ -5690,10 +5690,10 @@
     </row>
     <row r="231" spans="1:7">
       <c r="A231">
+        <v>215.8939398174922</v>
+      </c>
+      <c r="B231">
         <v>201702</v>
-      </c>
-      <c r="B231">
-        <v>215.8939398174922</v>
       </c>
       <c r="C231">
         <v>283.2584674851161</v>
@@ -5713,10 +5713,10 @@
     </row>
     <row r="232" spans="1:7">
       <c r="A232">
+        <v>232.8328429524521</v>
+      </c>
+      <c r="B232">
         <v>201703</v>
-      </c>
-      <c r="B232">
-        <v>232.8328429524521</v>
       </c>
       <c r="C232">
         <v>215.8939398174922</v>
@@ -5736,10 +5736,10 @@
     </row>
     <row r="233" spans="1:7">
       <c r="A233">
+        <v>183.8924757469459</v>
+      </c>
+      <c r="B233">
         <v>201704</v>
-      </c>
-      <c r="B233">
-        <v>183.8924757469459</v>
       </c>
       <c r="C233">
         <v>232.8328429524521</v>
@@ -5759,10 +5759,10 @@
     </row>
     <row r="234" spans="1:7">
       <c r="A234">
+        <v>183.5557894673059</v>
+      </c>
+      <c r="B234">
         <v>201705</v>
-      </c>
-      <c r="B234">
-        <v>183.5557894673059</v>
       </c>
       <c r="C234">
         <v>183.8924757469459</v>
@@ -5782,10 +5782,10 @@
     </row>
     <row r="235" spans="1:7">
       <c r="A235">
+        <v>164.9093848280892</v>
+      </c>
+      <c r="B235">
         <v>201706</v>
-      </c>
-      <c r="B235">
-        <v>164.9093848280892</v>
       </c>
       <c r="C235">
         <v>183.5557894673059</v>
@@ -5805,10 +5805,10 @@
     </row>
     <row r="236" spans="1:7">
       <c r="A236">
+        <v>129.7509068459908</v>
+      </c>
+      <c r="B236">
         <v>201707</v>
-      </c>
-      <c r="B236">
-        <v>129.7509068459908</v>
       </c>
       <c r="C236">
         <v>164.9093848280892</v>
@@ -5828,10 +5828,10 @@
     </row>
     <row r="237" spans="1:7">
       <c r="A237">
+        <v>140.3715052592269</v>
+      </c>
+      <c r="B237">
         <v>201708</v>
-      </c>
-      <c r="B237">
-        <v>140.3715052592269</v>
       </c>
       <c r="C237">
         <v>129.7509068459908</v>
@@ -5851,10 +5851,10 @@
     </row>
     <row r="238" spans="1:7">
       <c r="A238">
+        <v>154.299457955238</v>
+      </c>
+      <c r="B238">
         <v>201709</v>
-      </c>
-      <c r="B238">
-        <v>154.299457955238</v>
       </c>
       <c r="C238">
         <v>140.3715052592269</v>
@@ -5874,10 +5874,10 @@
     </row>
     <row r="239" spans="1:7">
       <c r="A239">
+        <v>155.58754626853</v>
+      </c>
+      <c r="B239">
         <v>201710</v>
-      </c>
-      <c r="B239">
-        <v>155.58754626853</v>
       </c>
       <c r="C239">
         <v>154.299457955238</v>
@@ -5897,10 +5897,10 @@
     </row>
     <row r="240" spans="1:7">
       <c r="A240">
+        <v>150.1229905484541</v>
+      </c>
+      <c r="B240">
         <v>201711</v>
-      </c>
-      <c r="B240">
-        <v>150.1229905484541</v>
       </c>
       <c r="C240">
         <v>155.58754626853</v>
@@ -5920,10 +5920,10 @@
     </row>
     <row r="241" spans="1:7">
       <c r="A241">
+        <v>148.3396055106632</v>
+      </c>
+      <c r="B241">
         <v>201712</v>
-      </c>
-      <c r="B241">
-        <v>148.3396055106632</v>
       </c>
       <c r="C241">
         <v>150.1229905484541</v>
@@ -5943,10 +5943,10 @@
     </row>
     <row r="242" spans="1:7">
       <c r="A242">
+        <v>124.1952506321562</v>
+      </c>
+      <c r="B242">
         <v>201801</v>
-      </c>
-      <c r="B242">
-        <v>124.1952506321562</v>
       </c>
       <c r="C242">
         <v>148.3396055106632</v>
@@ -5966,10 +5966,10 @@
     </row>
     <row r="243" spans="1:7">
       <c r="A243">
+        <v>120.6392074170238</v>
+      </c>
+      <c r="B243">
         <v>201802</v>
-      </c>
-      <c r="B243">
-        <v>120.6392074170238</v>
       </c>
       <c r="C243">
         <v>124.1952506321562</v>
@@ -5989,10 +5989,10 @@
     </row>
     <row r="244" spans="1:7">
       <c r="A244">
+        <v>152.9492607881777</v>
+      </c>
+      <c r="B244">
         <v>201803</v>
-      </c>
-      <c r="B244">
-        <v>152.9492607881777</v>
       </c>
       <c r="C244">
         <v>120.6392074170238</v>
@@ -6012,10 +6012,10 @@
     </row>
     <row r="245" spans="1:7">
       <c r="A245">
+        <v>146.4282285487073</v>
+      </c>
+      <c r="B245">
         <v>201804</v>
-      </c>
-      <c r="B245">
-        <v>146.4282285487073</v>
       </c>
       <c r="C245">
         <v>152.9492607881777</v>
@@ -6035,10 +6035,10 @@
     </row>
     <row r="246" spans="1:7">
       <c r="A246">
+        <v>178.4254563768671</v>
+      </c>
+      <c r="B246">
         <v>201805</v>
-      </c>
-      <c r="B246">
-        <v>178.4254563768671</v>
       </c>
       <c r="C246">
         <v>146.4282285487073</v>
@@ -6058,10 +6058,10 @@
     </row>
     <row r="247" spans="1:7">
       <c r="A247">
+        <v>189.1520148393907</v>
+      </c>
+      <c r="B247">
         <v>201806</v>
-      </c>
-      <c r="B247">
-        <v>189.1520148393907</v>
       </c>
       <c r="C247">
         <v>178.4254563768671</v>
@@ -6081,10 +6081,10 @@
     </row>
     <row r="248" spans="1:7">
       <c r="A248">
+        <v>210.7081612641653</v>
+      </c>
+      <c r="B248">
         <v>201807</v>
-      </c>
-      <c r="B248">
-        <v>210.7081612641653</v>
       </c>
       <c r="C248">
         <v>189.1520148393907</v>
